--- a/biology/Botanique/Merlot_blanc/Merlot_blanc.xlsx
+++ b/biology/Botanique/Merlot_blanc/Merlot_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le merlot blanc B[1] est un cépage de France de raisins blancs.
+Le merlot blanc B est un cépage de France de raisins blancs.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le merlot blanc n’est pas une variété du merlot. Il aurait été rapporté en 1891 par Monsieur Guinaudie du Sud-Ouest ou il avait participé à une chasse. Le pépiniériste Jean Élie le répandait dans les régions du Blayais, du Bourgeais et des Graves.
-Son origine génétique a été résolue par analyse de son ADN, il s'agit d'un métis de merlot N et de folle blanche B[2]..
+Son origine génétique a été résolue par analyse de son ADN, il s'agit d'un métis de merlot N et de folle blanche B..
 Avec 176 hectares (en 2004), le cépage est cultivé principalement dans le département de la Gironde. Depuis 1995, le merlot blanc n’est plus multiplié. Il est en forte régression en passant de 5.277 hectares en 1958 à 176 hectares aujourd’hui. Les vielles vignes ne sont plus remplacées.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau Cotonneux blanc à liseré carminé.
 Jeune feuilles duveteuses du haut et cotonneux dessous, jaune-vert pâle
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque hâtive: 12 jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grandes et les baies sont de taille moyenne. La grappe est cylindrique et compacte. Le cépage est très vigoureux et productif. Il craint la pourriture grise et dans des sols à sables littoraux il est atteint par les nématodes.
 </t>
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le merlot blanc est connu sous le nom merlau blanc et par erreur sous le nom de colombard (à ne pas confondre avec le colombard!)
 </t>
@@ -671,6 +693,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
